--- a/电商产品模块进度表V1.0.xlsx
+++ b/电商产品模块进度表V1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="移动端" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>AppCan电商-顾客移动端</t>
   </si>
@@ -397,17 +397,19 @@
   </si>
   <si>
     <t>角色权限配置</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,9 +447,148 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -455,14 +596,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,7 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="1" tint="0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,8 +634,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -628,22 +949,273 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,179 +1252,224 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,93 +1477,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1207,717 +1797,884 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="50" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="68" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+    <row r="1" ht="39.95" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67">
+    <row r="3" ht="30" customHeight="1" spans="1:11">
+      <c r="A3" s="69">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="73">
         <v>0.9</v>
       </c>
-      <c r="G3" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="51" t="s">
+      <c r="I3" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="1:11">
+      <c r="A4" s="69"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="73">
         <v>0.8</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="68">
+      <c r="G4" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="92">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:11">
+      <c r="A5" s="43">
         <v>2</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="73">
         <v>0.9</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="26" t="s">
+      <c r="G5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" ht="48" customHeight="1" spans="1:11">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="73">
         <v>0.9</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="68">
+      <c r="G6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" ht="78.95" customHeight="1" spans="1:11">
+      <c r="A7" s="43">
         <v>3</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="73">
         <v>0.9</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="30" t="s">
+      <c r="G7" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" ht="51" customHeight="1" spans="1:11">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="74" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="58">
+        <v>0</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" ht="72" customHeight="1" spans="1:11">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="73">
         <v>0.5</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="13" t="s">
+      <c r="G9" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" ht="72" customHeight="1" spans="1:11">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="80">
         <v>0.3</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="26" t="s">
+      <c r="G10" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="73">
         <v>0</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68">
+      <c r="G11" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="58">
+        <v>0</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:11">
+      <c r="A12" s="43">
         <v>4</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="43" t="s">
+      <c r="F12" s="82"/>
+      <c r="G12" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="66"/>
+      <c r="J12" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" ht="102.95" customHeight="1" spans="1:11">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="J13" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:11">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="43" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:11">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="58">
         <v>0.8</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68">
+      <c r="G15" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="J15" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" ht="48" customHeight="1" spans="1:11">
+      <c r="A16" s="43">
         <v>5</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="94">
+      <c r="F16" s="52">
         <v>0</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="43" t="s">
+      <c r="G16" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="J16" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" ht="51.95" customHeight="1" spans="1:11">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="93">
+      <c r="F17" s="58">
         <v>0.9</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68">
+      <c r="G17" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" ht="48.95" customHeight="1" spans="1:11">
+      <c r="A18" s="43">
         <v>6</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="43" t="s">
+      <c r="H18" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="93">
+        <v>0</v>
+      </c>
+      <c r="J18" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" ht="54" customHeight="1" spans="1:11">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="43" t="s">
+      <c r="H19" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="93">
+        <v>0</v>
+      </c>
+      <c r="J19" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" ht="69.95" customHeight="1" spans="1:11">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="43" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="93">
+        <v>0</v>
+      </c>
+      <c r="J20" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="1:11">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="43" t="s">
+      <c r="E21" s="88"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="93">
+        <v>0</v>
+      </c>
+      <c r="J21" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" ht="53.1" customHeight="1" spans="1:11">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="43" t="s">
+      <c r="E22" s="88"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="93">
+        <v>0</v>
+      </c>
+      <c r="J22" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" ht="47.1" customHeight="1" spans="1:11">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="43" t="s">
+      <c r="E23" s="88"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="93">
+        <v>0</v>
+      </c>
+      <c r="J23" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:11">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="43" t="s">
+      <c r="E24" s="89"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="93">
+        <v>0</v>
+      </c>
+      <c r="J24" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" ht="41.1" customHeight="1" spans="1:11">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="93">
+      <c r="F25" s="58">
         <v>0.7</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="43" t="s">
+      <c r="G25" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="93">
+        <v>0</v>
+      </c>
+      <c r="J25" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="93">
+      <c r="F26" s="58">
         <v>0.7</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="71">
+      <c r="G26" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="93">
+        <v>0</v>
+      </c>
+      <c r="J26" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" ht="45" customHeight="1" spans="1:11">
+      <c r="A27" s="48">
         <v>7</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="93">
+      <c r="F27" s="58">
         <v>0.1</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="16" t="s">
+      <c r="G27" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="58">
+        <v>0</v>
+      </c>
+      <c r="J27" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" ht="72.95" customHeight="1" spans="1:11">
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="19">
         <v>0</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="16" t="s">
+      <c r="G28" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="58">
+        <v>0</v>
+      </c>
+      <c r="J28" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:11">
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="19">
         <v>0</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="27" t="s">
+      <c r="G29" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="58">
+        <v>0</v>
+      </c>
+      <c r="J29" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" ht="63" customHeight="1" spans="1:11">
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="93">
+      <c r="F30" s="58">
         <v>0.5</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="16"/>
+      <c r="G30" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="58">
+        <v>0</v>
+      </c>
+      <c r="J30" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A26"/>
     <mergeCell ref="A27:A30"/>
@@ -1928,41 +2685,38 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B26"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E20:E24"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G10:G30 G31:G1048576 J1:J1048576">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H2 H3:H4 H5:H30 H31:H1048576">
+      <formula1>"杨林軍,钟宪宇"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12 E25 E1:E11 E14:E24 E26:E1048576">
       <formula1>"朱广源,王金广,张广宇"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>"杨林軍,钟宪宇"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G9 G10:G30 G31:G1048576 J1:J2 J3:J30 J31:J1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
@@ -1974,522 +2728,523 @@
     <col min="11" max="11" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+    <row r="1" ht="39.95" customHeight="1" spans="1:11">
+      <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="59"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:11">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86">
+    <row r="3" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="95">
+      <c r="F3" s="34">
         <v>0.5</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-    </row>
-    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="27" t="s">
+      <c r="G3" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+    </row>
+    <row r="4" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="35">
         <v>0</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-    </row>
-    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="87">
+      <c r="G4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A5" s="37">
         <v>2</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="44"/>
-    </row>
-    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="7" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="62"/>
+    </row>
+    <row r="6" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="44"/>
-    </row>
-    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="7" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="44"/>
-    </row>
-    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="7" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="62"/>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="44"/>
-    </row>
-    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="68">
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="62"/>
+    </row>
+    <row r="9" ht="50.1" customHeight="1" spans="1:11">
+      <c r="A9" s="43">
         <v>3</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="22">
         <v>0.9</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="30" t="s">
+      <c r="G9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" ht="51" customHeight="1" spans="1:11">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="22">
         <v>0.9</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="48"/>
-    </row>
-    <row r="11" spans="1:12" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="30" t="s">
+      <c r="G10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" ht="63.95" customHeight="1" spans="1:11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="22">
         <v>0.9</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="48"/>
-    </row>
-    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="26" t="s">
+      <c r="G11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="26" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="86">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" ht="54" customHeight="1" spans="1:11">
+      <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="48"/>
-    </row>
-    <row r="14" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="86"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="26" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" ht="39.95" customHeight="1" spans="1:11">
+      <c r="A14" s="14"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="48"/>
-    </row>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="86"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="12" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A15" s="14"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="48"/>
-    </row>
-    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="86">
+      <c r="F15" s="48"/>
+      <c r="G15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A16" s="14">
         <v>5</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="96">
+      <c r="F16" s="50">
         <v>0.8</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="36" t="s">
+      <c r="G16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" ht="33" customHeight="1" spans="1:11">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="52">
         <v>0.9</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="48"/>
-    </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="37" t="s">
+      <c r="G17" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" s="28" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="49"/>
-    </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="37" t="s">
+      <c r="F18" s="56"/>
+      <c r="G18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="67"/>
+    </row>
+    <row r="19" s="28" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="49"/>
-    </row>
-    <row r="20" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="12" t="s">
+      <c r="F19" s="56"/>
+      <c r="G19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="67"/>
+    </row>
+    <row r="20" ht="44.1" customHeight="1" spans="1:11">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="97">
+      <c r="F20" s="17">
         <v>0.9</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="48"/>
-    </row>
-    <row r="21" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+      <c r="G20" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" ht="54" customHeight="1" spans="1:11">
+      <c r="A21" s="14">
         <v>6</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="93">
+      <c r="F21" s="58">
         <v>0.9</v>
       </c>
-      <c r="G21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="G21" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J19 G1:G2 G3:G21 G22:G1048576 J1:J2 J3:J18 J20:J1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19 H1:H2 H3:H18 H20:H1048576">
       <formula1>"杨林军,钟宪宇"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19 E1:E2 E3:E18 E20:E1048576">
       <formula1>"朱广源,王金广,张广宇"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J19 G1:G2 G3:G21 G22:G1048576 J1:J2 J3:J18 J20:J1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
@@ -2501,281 +3256,281 @@
     <col min="10" max="10" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+    <row r="1" ht="39.95" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+    <row r="3" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="86">
+      <c r="F3" s="12"/>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="97">
+      <c r="F4" s="17">
         <v>0.9</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="12" t="s">
+      <c r="G4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="20">
         <v>0.9</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="86">
+      <c r="G5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="22">
         <v>0.9</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="12" t="s">
+      <c r="G6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="22">
         <v>0.9</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="12" t="s">
+      <c r="G7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="86">
+      <c r="E8" s="21"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="12" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="18" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="18" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" ht="24.95" customHeight="1" spans="1:11">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2787,18 +3542,18 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B12"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10 G11 J11 G1:G2 G3:G10 G12:G1048576 J1:J9 J12:J1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 H11 H1:H9 H12:H1048576">
       <formula1>"杨林军,钟宪宇"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E11 E1:E9 E12:E1048576">
       <formula1>"朱广源,王金广,张广宇"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10 G11 J11 G1:G2 G3:G10 G12:G1048576 J1:J9 J12:J1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>